--- a/resources/ADS.xlsx
+++ b/resources/ADS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlkoschutnig/Documents/GitHub/X2bids/pyBehds/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Thunder/refactored_scripts/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7424D9D-A968-664B-A123-9922609ED50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC98F2C-588C-7A4D-A6A8-67B3832AA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="34560" windowHeight="19880" activeTab="2" xr2:uid="{EA7070BF-D72A-431F-9CC6-47E7609A5101}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{EA7070BF-D72A-431F-9CC6-47E7609A5101}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -940,16 +940,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72250EA-01DB-44D0-A1FD-7A56AD47554D}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="0.1640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -2215,14 +2215,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2361,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A0BE34-DDA3-CE40-9A1A-5663D1AB54BC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
